--- a/my-app/public/template_selections.xlsx
+++ b/my-app/public/template_selections.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,217 +407,96 @@
         <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>name</v>
+        <v>customerName</v>
       </c>
       <c r="C1" t="str">
-        <v>phone</v>
+        <v>weddingDate</v>
       </c>
       <c r="D1" t="str">
-        <v>date</v>
+        <v>groomNameEn</v>
       </c>
       <c r="E1" t="str">
-        <v>memo</v>
+        <v>brideNameEn</v>
       </c>
       <c r="F1" t="str">
-        <v>agreed</v>
+        <v>templateName</v>
       </c>
       <c r="G1" t="str">
-        <v>templateName</v>
-      </c>
-      <c r="H1" t="str">
         <v>submittedAt</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1767875083364</v>
+        <v>1768492139138</v>
       </c>
       <c r="B2" t="str">
-        <v>ㅈㅈ</v>
+        <v>11</v>
       </c>
       <c r="C2" t="str">
-        <v>010</v>
+        <v>2025-12-31</v>
       </c>
       <c r="D2" t="str">
-        <v>2026-01-08T21:24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="str">
-        <v>ㅎㅎ</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Wedding Template 01</v>
       </c>
       <c r="G2" t="str">
-        <v>Wedding Template 01</v>
-      </c>
-      <c r="H2" t="str">
-        <v>2026-01-08T12:24:43.364Z</v>
+        <v>2026. 1. 16. 오전 12:48:59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1767877050127</v>
+        <v>1768492202209</v>
       </c>
       <c r="B3" t="str">
-        <v>지수</v>
+        <v>정지수</v>
       </c>
       <c r="C3" t="str">
-        <v>01075965558</v>
+        <v>2026-01-30</v>
+      </c>
+      <c r="D3" t="str">
+        <v>juns jisu</v>
       </c>
       <c r="E3" t="str">
-        <v>헤헤</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
+        <v>jung jisu</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Wedding Template 04</v>
       </c>
       <c r="G3" t="str">
-        <v>Wedding Template 02</v>
-      </c>
-      <c r="H3" t="str">
-        <v>2026-01-08T12:57:30.127Z</v>
+        <v>2026. 1. 16. 오전 12:50:02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1768205213992</v>
+        <v>1768492264026</v>
       </c>
       <c r="B4" t="str">
-        <v>test</v>
+        <v>정정정</v>
       </c>
       <c r="C4" t="str">
-        <v>01011445</v>
+        <v>2026-02-26</v>
+      </c>
+      <c r="D4" t="str">
+        <v>123</v>
       </c>
       <c r="E4" t="str">
-        <v>하이</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Wedding Template 08</v>
       </c>
       <c r="G4" t="str">
-        <v>Wedding Template 01</v>
-      </c>
-      <c r="H4" t="str">
-        <v>2026-01-12T08:06:53.992Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>1768205463866</v>
-      </c>
-      <c r="B5" t="str">
-        <v>ㅎㅇ</v>
-      </c>
-      <c r="C5" t="str">
-        <v>ㅎㅇ</v>
-      </c>
-      <c r="E5" t="str">
-        <v>123123</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Wedding Template 01</v>
-      </c>
-      <c r="H5" t="str">
-        <v>2026-01-12T08:11:03.866Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1768205617696</v>
-      </c>
-      <c r="B6" t="str">
-        <v>안녕</v>
-      </c>
-      <c r="C6" t="str">
-        <v>123123123</v>
-      </c>
-      <c r="E6" t="str">
-        <v>123123</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Wedding Template 02</v>
-      </c>
-      <c r="H6" t="str">
-        <v>2026-01-12T08:13:37.696Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1768205682530</v>
-      </c>
-      <c r="B7" t="str">
-        <v>ㅎ1</v>
-      </c>
-      <c r="C7" t="str">
-        <v>ㅎ1</v>
-      </c>
-      <c r="E7" t="str">
-        <v>123</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Wedding Template 03</v>
-      </c>
-      <c r="H7" t="str">
-        <v>2026-01-12T08:14:42.530Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1768205834398</v>
-      </c>
-      <c r="B8" t="str">
-        <v>123123123</v>
-      </c>
-      <c r="C8" t="str">
-        <v>123123123</v>
-      </c>
-      <c r="E8" t="str">
-        <v>123123</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Wedding Template 02</v>
-      </c>
-      <c r="H8" t="str">
-        <v>2026-01-12T08:17:14.398Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1768205965774</v>
-      </c>
-      <c r="B9" t="str">
-        <v>ㅋㅋㅋ</v>
-      </c>
-      <c r="C9" t="str">
-        <v>ㅋㅋㅋ</v>
-      </c>
-      <c r="E9" t="str">
-        <v>ㅋㅋㅋ</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Wedding Template 02</v>
-      </c>
-      <c r="H9" t="str">
-        <v>2026-01-12T08:19:25.774Z</v>
+        <v>2026. 1. 16. 오전 12:51:04</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>